--- a/Data/Table_Sensory_byDiet_JournalReady.xlsx
+++ b/Data/Table_Sensory_byDiet_JournalReady.xlsx
@@ -1,21 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8345412-98DD-4FDD-B09C-F1D49C5B09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>n_respondents</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>flavour</t>
+  </si>
+  <si>
+    <t>tendrness</t>
+  </si>
+  <si>
+    <t>juiciness</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>overall_quality</t>
+  </si>
+  <si>
+    <t>colour_n</t>
+  </si>
+  <si>
+    <t>flavour_n</t>
+  </si>
+  <si>
+    <t>tendrness_n</t>
+  </si>
+  <si>
+    <t>juiciness_n</t>
+  </si>
+  <si>
+    <t>taste_n</t>
+  </si>
+  <si>
+    <t>overall_quality_n</t>
+  </si>
+  <si>
+    <t>willingness_to_buy_yes_pct</t>
+  </si>
+  <si>
+    <t>willingness_to_buy_n</t>
+  </si>
+  <si>
+    <t>gender_FEMALE</t>
+  </si>
+  <si>
+    <t>gender_MALE</t>
+  </si>
+  <si>
+    <t>age_21-25</t>
+  </si>
+  <si>
+    <t>age_26-30</t>
+  </si>
+  <si>
+    <t>age_31-35</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>7.00 ± 1.33</t>
+  </si>
+  <si>
+    <t>7.03 ± 1.36</t>
+  </si>
+  <si>
+    <t>7.41 ± 1.37</t>
+  </si>
+  <si>
+    <t>6.97 ± 1.29</t>
+  </si>
+  <si>
+    <t>7.24 ± 1.39</t>
+  </si>
+  <si>
+    <t>7.42 ± 1.29</t>
+  </si>
+  <si>
+    <t>76.5</t>
+  </si>
+  <si>
+    <t>16 (47.1%)</t>
+  </si>
+  <si>
+    <t>18 (52.9%)</t>
+  </si>
+  <si>
+    <t>12 (35.3%)</t>
+  </si>
+  <si>
+    <t>13 (38.2%)</t>
+  </si>
+  <si>
+    <t>9 (26.5%)</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>7.15 ± 1.48</t>
+  </si>
+  <si>
+    <t>7.26 ± 1.26</t>
+  </si>
+  <si>
+    <t>7.62 ± 1.33</t>
+  </si>
+  <si>
+    <t>7.00 ± 1.35</t>
+  </si>
+  <si>
+    <t>6.97 ± 1.47</t>
+  </si>
+  <si>
+    <t>7.39 ± 1.15</t>
+  </si>
+  <si>
+    <t>78.8</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>6.71 ± 1.64</t>
+  </si>
+  <si>
+    <t>6.82 ± 1.49</t>
+  </si>
+  <si>
+    <t>7.50 ± 1.11</t>
+  </si>
+  <si>
+    <t>6.82 ± 1.51</t>
+  </si>
+  <si>
+    <t>6.85 ± 1.62</t>
+  </si>
+  <si>
+    <t>6.90 ± 1.45</t>
+  </si>
+  <si>
+    <t>81.8</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>7.00 ± 1.18</t>
+  </si>
+  <si>
+    <t>7.12 ± 1.37</t>
+  </si>
+  <si>
+    <t>7.26 ± 1.21</t>
+  </si>
+  <si>
+    <t>7.15 ± 1.23</t>
+  </si>
+  <si>
+    <t>7.03 ± 1.47</t>
+  </si>
+  <si>
+    <t>7.06 ± 1.31</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +248,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +300,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +334,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,158 +545,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>diet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n_respondents</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>colour</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>flavour</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tendrness</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>juiciness</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>taste</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>overall_quality</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>colour_n</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>flavour_n</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>tendrness_n</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>juiciness_n</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>taste_n</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>overall_quality_n</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>willingness_to_buy_yes_pct</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>willingness_to_buy_n</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>gender_FEMALE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>gender_MALE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>age_21-25</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>age_26-30</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>age_31-35</t>
-        </is>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
         <v>34</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7.00 ± 1.33</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.03 ± 1.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>7.41 ± 1.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.97 ± 1.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.24 ± 1.39</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>7.42 ± 1.29</t>
-        </is>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -521,78 +679,52 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>76.5</t>
-        </is>
+      <c r="O2" t="s">
+        <v>28</v>
       </c>
       <c r="P2">
         <v>34</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16 (47.1%)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>18 (52.9%)</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>12 (35.3%)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>13 (38.2%)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>9 (26.5%)</t>
-        </is>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
       </c>
       <c r="B3">
         <v>34</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>7.15 ± 1.48</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.26 ± 1.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.62 ± 1.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.00 ± 1.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6.97 ± 1.47</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>7.39 ± 1.15</t>
-        </is>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -612,78 +744,52 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>78.8</t>
-        </is>
+      <c r="O3" t="s">
+        <v>41</v>
       </c>
       <c r="P3">
         <v>33</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>16 (47.1%)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>18 (52.9%)</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>12 (35.3%)</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>13 (38.2%)</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>9 (26.5%)</t>
-        </is>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>34</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6.71 ± 1.64</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.82 ± 1.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.50 ± 1.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.82 ± 1.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.85 ± 1.62</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>6.90 ± 1.45</t>
-        </is>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -703,78 +809,52 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>81.8</t>
-        </is>
+      <c r="O4" t="s">
+        <v>49</v>
       </c>
       <c r="P4">
         <v>33</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>16 (47.1%)</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>18 (52.9%)</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>12 (35.3%)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>13 (38.2%)</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>9 (26.5%)</t>
-        </is>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
       </c>
       <c r="B5">
         <v>34</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7.00 ± 1.18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.12 ± 1.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.26 ± 1.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.15 ± 1.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>7.03 ± 1.47</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>7.06 ± 1.31</t>
-        </is>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -794,38 +874,26 @@
       <c r="N5">
         <v>1</v>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>66.7</t>
-        </is>
+      <c r="O5" t="s">
+        <v>57</v>
       </c>
       <c r="P5">
         <v>33</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>16 (47.1%)</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>18 (52.9%)</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>12 (35.3%)</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>13 (38.2%)</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>9 (26.5%)</t>
-        </is>
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
